--- a/TOM YUM - VCO/BOM.xlsx
+++ b/TOM YUM - VCO/BOM.xlsx
@@ -42,7 +42,7 @@
     <t>SINGLE ROW 10 MALE PIN HEADER STRIP</t>
   </si>
   <si>
-    <t>https://www.taydaelectronics.com/40-pin-2-00-mm-single-row-pin-header-strip.html</t>
+    <t>https://www.taydaelectronics.com/40-pin-2-54-mm-single-row-pin-header-strip.html</t>
   </si>
   <si>
     <t>B1M</t>
@@ -444,7 +444,7 @@
     <t>qty</t>
   </si>
   <si>
-    <t>A-1299</t>
+    <t>A-197</t>
   </si>
   <si>
     <t>A-1882</t>
